--- a/日誌.xlsx
+++ b/日誌.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14226FE6-4023-4B97-84F4-0D71CDB10941}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280CACDE-0122-425C-AEAD-BFFEADD3E4F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>自習時間</t>
     <rPh sb="0" eb="2">
@@ -31,13 +31,22 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>分</t>
+    <rPh sb="0" eb="1">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d\(aaa\)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\(aaa\)"/>
+    <numFmt numFmtId="179" formatCode="[mm]"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -63,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -155,21 +164,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -202,6 +242,43 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>自習時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>分</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -240,14 +317,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -274,21 +343,27 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$33</c:f>
+              <c:f>Sheet1!$E$3:$E$33</c:f>
               <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>8.0555555555555561E-2</c:v>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.7777777777777779E-2</c:v>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,7 +371,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E811-4564-932F-B22A2E68ABD7}"/>
+              <c16:uniqueId val="{00000000-BD3D-4236-9443-1CA7A19D85DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -310,11 +385,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="291361039"/>
-        <c:axId val="209712991"/>
+        <c:axId val="295030848"/>
+        <c:axId val="304482960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="291361039"/>
+        <c:axId val="295030848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,7 +431,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209712991"/>
+        <c:crossAx val="304482960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -364,7 +439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209712991"/>
+        <c:axId val="304482960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,7 +459,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -415,7 +490,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291361039"/>
+        <c:crossAx val="295030848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1018,23 +1093,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2">
+        <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154A5F16-9E3B-451C-80E3-1FA19A4D0161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9565C05F-7789-4847-892A-547E64AD2385}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,44 +1393,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1">
       <c r="B2" s="1"/>
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="C3" s="3">
         <v>44927</v>
       </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="C4" s="4">
         <v>44928</v>
       </c>
       <c r="D4" s="7">
         <v>8.0555555555555561E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="C5" s="4">
         <v>44929</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="C6" s="4">
         <v>44930</v>
@@ -1363,170 +1452,206 @@
       <c r="D6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="C7" s="4">
         <v>44931</v>
       </c>
       <c r="D7" s="7">
         <v>7.7777777777777779E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="C8" s="4">
         <v>44932</v>
       </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="7">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="E8" s="10">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="C9" s="4">
         <v>44933</v>
       </c>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="C10" s="4">
         <v>44934</v>
       </c>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="C11" s="4">
         <v>44935</v>
       </c>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="C12" s="4">
         <v>44936</v>
       </c>
       <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="C13" s="4">
         <v>44937</v>
       </c>
       <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="C14" s="4">
         <v>44938</v>
       </c>
       <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="C15" s="4">
         <v>44939</v>
       </c>
       <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="C16" s="4">
         <v>44940</v>
       </c>
       <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="3:4">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="3:5">
       <c r="C17" s="4">
         <v>44941</v>
       </c>
       <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="3:4">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="3:5">
       <c r="C18" s="4">
         <v>44942</v>
       </c>
       <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="3:4">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="3:5">
       <c r="C19" s="4">
         <v>44943</v>
       </c>
       <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="3:4">
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" s="4">
         <v>44944</v>
       </c>
       <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="3:4">
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="3:5">
       <c r="C21" s="4">
         <v>44945</v>
       </c>
       <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="3:4">
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="3:5">
       <c r="C22" s="4">
         <v>44946</v>
       </c>
       <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="3:4">
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="3:5">
       <c r="C23" s="4">
         <v>44947</v>
       </c>
       <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="3:4">
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="3:5">
       <c r="C24" s="4">
         <v>44948</v>
       </c>
       <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="3:4">
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="3:5">
       <c r="C25" s="4">
         <v>44949</v>
       </c>
       <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="3:4">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="3:5">
       <c r="C26" s="4">
         <v>44950</v>
       </c>
       <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="3:4">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="3:5">
       <c r="C27" s="4">
         <v>44951</v>
       </c>
       <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="3:4">
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="3:5">
       <c r="C28" s="4">
         <v>44952</v>
       </c>
       <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="3:4">
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="3:5">
       <c r="C29" s="4">
         <v>44953</v>
       </c>
       <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="3:4">
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="3:5">
       <c r="C30" s="4">
         <v>44954</v>
       </c>
       <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="3:4">
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="3:5">
       <c r="C31" s="4">
         <v>44955</v>
       </c>
       <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="3:4">
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="3:5">
       <c r="C32" s="4">
         <v>44956</v>
       </c>
       <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="3:4" ht="18.600000000000001" thickBot="1">
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="3:5" ht="18.600000000000001" thickBot="1">
       <c r="C33" s="5">
         <v>44957</v>
       </c>
       <c r="D33" s="8"/>
+      <c r="E33" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/日誌.xlsx
+++ b/日誌.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280CACDE-0122-425C-AEAD-BFFEADD3E4F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784241BB-FACA-4C48-9EAB-F97975DC64E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,8 +45,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\(aaa\)"/>
-    <numFmt numFmtId="179" formatCode="[mm]"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="[mm]"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -206,10 +206,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -364,6 +364,21 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -546,7 +561,403 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>自習作業時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>分</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-450C-4AD4-B55E-C411B3ECBE2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="627488655"/>
+        <c:axId val="587764719"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="627488655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587764719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="587764719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627488655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1089,6 +1500,500 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1122,6 +2027,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>369570</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9C86F2-0DD6-41FA-AF38-6661401626A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1395,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1482,36 +2423,56 @@
       <c r="C9" s="4">
         <v>44933</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="7">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>122</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="C10" s="4">
         <v>44934</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="C11" s="4">
         <v>44935</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="7">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E11" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" s="4">
         <v>44936</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="7">
+        <v>0.17152777777777775</v>
+      </c>
+      <c r="E12" s="10">
+        <v>247</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" s="4">
         <v>44937</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" s="4">

--- a/日誌.xlsx
+++ b/日誌.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784241BB-FACA-4C48-9EAB-F97975DC64E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0DF217-AB9B-47A2-A31C-27F4433E226C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,6 +379,9 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -742,6 +745,9 @@
                 <c:pt idx="10" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>173</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2337,7 +2343,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2478,8 +2484,12 @@
       <c r="C14" s="4">
         <v>44938</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="7">
+        <v>0.12013888888888889</v>
+      </c>
+      <c r="E14" s="10">
+        <v>173</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="4">

--- a/日誌.xlsx
+++ b/日誌.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0DF217-AB9B-47A2-A31C-27F4433E226C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DA8518-33B9-4E0E-A424-F044D7A5E77E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,6 +382,18 @@
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
                   <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,6 +760,18 @@
                 <c:pt idx="11" formatCode="General">
                   <c:v>173</c:v>
                 </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2343,7 +2367,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2495,29 +2519,45 @@
       <c r="C15" s="4">
         <v>44939</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="7">
+        <v>0.18611111111111112</v>
+      </c>
+      <c r="E15" s="10">
+        <v>268</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" s="4">
         <v>44940</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="7">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="E16" s="10">
+        <v>168</v>
+      </c>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="4">
         <v>44941</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="4">
         <v>44942</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="4">

--- a/日誌.xlsx
+++ b/日誌.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DA8518-33B9-4E0E-A424-F044D7A5E77E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E38AD3-CB9B-42B0-A281-C312366ABE44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -210,6 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -393,6 +394,24 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="h:mm">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -772,6 +791,24 @@
                 <c:pt idx="15" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="h:mm">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2367,7 +2404,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2563,43 +2600,67 @@
       <c r="C19" s="4">
         <v>44943</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="7">
+        <v>9.6527777777777768E-2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>139</v>
+      </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="4">
         <v>44944</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="4">
         <v>44945</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
+      <c r="D21" s="7">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="E21" s="10">
+        <v>140</v>
+      </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="4">
         <v>44946</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10"/>
+      <c r="D22" s="7">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="E22" s="10">
+        <v>76</v>
+      </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="4">
         <v>44947</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="10"/>
+      <c r="D23" s="7">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>96</v>
+      </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="4">
         <v>44948</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="4">

--- a/日誌.xlsx
+++ b/日誌.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E38AD3-CB9B-42B0-A281-C312366ABE44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB06CB3-BC9C-4B53-B224-9E723EBDB404}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,6 +414,9 @@
                 <c:pt idx="21" formatCode="h:mm">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>203</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -809,6 +812,9 @@
                 <c:pt idx="21" formatCode="h:mm">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>203</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2404,7 +2410,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2666,8 +2672,12 @@
       <c r="C25" s="4">
         <v>44949</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
+      <c r="D25" s="7">
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="E25" s="10">
+        <v>203</v>
+      </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="4">

--- a/日誌.xlsx
+++ b/日誌.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB06CB3-BC9C-4B53-B224-9E723EBDB404}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C49D7A-FA15-4733-A386-14E847C10E83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,6 +417,12 @@
                 <c:pt idx="22" formatCode="General">
                   <c:v>203</c:v>
                 </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>180</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -815,6 +821,12 @@
                 <c:pt idx="22" formatCode="General">
                   <c:v>203</c:v>
                 </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>180</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2409,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="79" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2683,15 +2695,23 @@
       <c r="C26" s="4">
         <v>44950</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="7">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="E26" s="10">
+        <v>86</v>
+      </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="4">
         <v>44951</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10"/>
+      <c r="D27" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="E27" s="10">
+        <v>180</v>
+      </c>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="4">

--- a/日誌.xlsx
+++ b/日誌.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C49D7A-FA15-4733-A386-14E847C10E83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E0D4A3-A6CB-4362-AF90-1092179B590D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,6 +423,15 @@
                 <c:pt idx="24" formatCode="General">
                   <c:v>180</c:v>
                 </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>181</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -827,6 +836,15 @@
                 <c:pt idx="24" formatCode="General">
                   <c:v>180</c:v>
                 </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>181</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2421,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="79" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2717,22 +2735,34 @@
       <c r="C28" s="4">
         <v>44952</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10"/>
+      <c r="D28" s="7">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="E28" s="10">
+        <v>131</v>
+      </c>
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="4">
         <v>44953</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10"/>
+      <c r="D29" s="7">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="E29" s="10">
+        <v>143</v>
+      </c>
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="4">
         <v>44954</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10"/>
+      <c r="D30" s="7">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="E30" s="10">
+        <v>181</v>
+      </c>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="4">

--- a/日誌.xlsx
+++ b/日誌.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E0D4A3-A6CB-4362-AF90-1092179B590D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDB3CC1-5978-4A6C-8820-8D8D5C8122F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,6 +432,9 @@
                 <c:pt idx="27" formatCode="General">
                   <c:v>181</c:v>
                 </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>291</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -845,6 +848,9 @@
                 <c:pt idx="27" formatCode="General">
                   <c:v>181</c:v>
                 </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>291</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2440,7 +2446,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="79" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2768,8 +2774,12 @@
       <c r="C31" s="4">
         <v>44955</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="10"/>
+      <c r="D31" s="7">
+        <v>0.20208333333333331</v>
+      </c>
+      <c r="E31" s="10">
+        <v>291</v>
+      </c>
     </row>
     <row r="32" spans="3:5">
       <c r="C32" s="4">

--- a/日誌.xlsx
+++ b/日誌.xlsx
@@ -3,13 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDB3CC1-5978-4A6C-8820-8D8D5C8122F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606E0641-1075-4F39-AD8F-891842E3603C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$I$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$I$3:$I$30</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$I$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$I$3:$I$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>自習時間</t>
     <rPh sb="0" eb="2">
@@ -38,17 +44,45 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2023</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自習時間</t>
+    <rPh sb="0" eb="4">
+      <t>ジシュウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分</t>
+    <rPh sb="0" eb="1">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="[mm]"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="@&quot;年&quot;"/>
+    <numFmt numFmtId="180" formatCode="@&quot;月&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +97,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -72,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -165,13 +208,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -183,11 +237,99 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -196,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -204,13 +346,26 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -280,6 +435,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76265919469373444"/>
+          <c:y val="0.3909314102720598"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -434,6 +597,12 @@
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
                   <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,6 +819,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>月</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>.</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
               <a:t>自習作業時間</a:t>
             </a:r>
@@ -850,6 +1031,12 @@
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
                   <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,6 +1213,355 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>月</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>自習作業時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>分</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE59-4594-BBAC-902313CBECAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="292405280"/>
+        <c:axId val="216166848"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="292405280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216166848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="216166848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292405280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1106,6 +1642,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2103,20 +2679,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>395302</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>62102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>273382</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>62102</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2143,16 +3213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>369570</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2017</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>101770</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7905</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2172,6 +3242,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>654422</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>219636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>116539</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165848</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7225B1D7-762F-4529-9A4A-35CFCDDEFBC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2443,357 +3549,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="79" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1">
+      <c r="A2" s="10">
+        <f>DATE(A1,G2,1)</f>
+        <v>44958</v>
+      </c>
       <c r="B2" s="1"/>
+      <c r="C2" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="G2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="C3" s="3">
         <v>44927</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="21">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>0</v>
       </c>
+      <c r="G3" s="18">
+        <v>44958</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="15">
+        <v>60</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="C4" s="4">
         <v>44928</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="22">
         <v>8.0555555555555561E-2</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="23">
         <v>116</v>
       </c>
+      <c r="G4" s="19">
+        <f>A2+1</f>
+        <v>44959</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="C5" s="4">
         <v>44929</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="22">
         <v>0</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="13">
         <v>0</v>
       </c>
+      <c r="G5" s="19">
+        <f>G4+1</f>
+        <v>44960</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="C6" s="4">
         <v>44930</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="13">
         <v>0</v>
       </c>
+      <c r="G6" s="19">
+        <f>G5+1</f>
+        <v>44961</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="C7" s="4">
         <v>44931</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="22">
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="13">
         <v>112</v>
       </c>
+      <c r="G7" s="19">
+        <f>G6+1</f>
+        <v>44962</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:9">
       <c r="C8" s="4">
         <v>44932</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="22">
         <v>0.14791666666666667</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="13">
         <v>213</v>
       </c>
+      <c r="G8" s="19">
+        <f>G7+1</f>
+        <v>44963</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9">
       <c r="C9" s="4">
         <v>44933</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="22">
         <v>8.4722222222222213E-2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="13">
         <v>122</v>
       </c>
+      <c r="G9" s="19">
+        <f>G8+1</f>
+        <v>44964</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="4">
         <v>44934</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="22">
         <v>0</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="13">
         <v>0</v>
       </c>
+      <c r="G10" s="19">
+        <f>G9+1</f>
+        <v>44965</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="C11" s="4">
         <v>44935</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="22">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="13">
         <v>10</v>
       </c>
+      <c r="G11" s="19">
+        <f>G10+1</f>
+        <v>44966</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:9">
       <c r="C12" s="4">
         <v>44936</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="22">
         <v>0.17152777777777775</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="13">
         <v>247</v>
       </c>
+      <c r="G12" s="19">
+        <f>G11+1</f>
+        <v>44967</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:9">
       <c r="C13" s="4">
         <v>44937</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="22">
         <v>0</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="13">
         <v>0</v>
       </c>
+      <c r="G13" s="19">
+        <f>G12+1</f>
+        <v>44968</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:9">
       <c r="C14" s="4">
         <v>44938</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="22">
         <v>0.12013888888888889</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="13">
         <v>173</v>
       </c>
+      <c r="G14" s="19">
+        <f>G13+1</f>
+        <v>44969</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:9">
       <c r="C15" s="4">
         <v>44939</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="22">
         <v>0.18611111111111112</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="13">
         <v>268</v>
       </c>
+      <c r="G15" s="19">
+        <f>G14+1</f>
+        <v>44970</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:9">
       <c r="C16" s="4">
         <v>44940</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="22">
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="13">
         <v>168</v>
       </c>
+      <c r="G16" s="19">
+        <f>G15+1</f>
+        <v>44971</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:14">
       <c r="C17" s="4">
         <v>44941</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="22">
         <v>0</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="13">
         <v>0</v>
       </c>
+      <c r="G17" s="19">
+        <f>G16+1</f>
+        <v>44972</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:14">
       <c r="C18" s="4">
         <v>44942</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="22">
         <v>0</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="13">
         <v>0</v>
       </c>
+      <c r="G18" s="19">
+        <f>G17+1</f>
+        <v>44973</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:14">
       <c r="C19" s="4">
         <v>44943</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="22">
         <v>9.6527777777777768E-2</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="13">
         <v>139</v>
       </c>
+      <c r="G19" s="19">
+        <f>G18+1</f>
+        <v>44974</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:14">
       <c r="C20" s="4">
         <v>44944</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="22">
         <v>6.25E-2</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="13">
         <v>90</v>
       </c>
+      <c r="G20" s="19">
+        <f>G19+1</f>
+        <v>44975</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:14">
       <c r="C21" s="4">
         <v>44945</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="22">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="13">
         <v>140</v>
       </c>
+      <c r="G21" s="19">
+        <f>G20+1</f>
+        <v>44976</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:14">
       <c r="C22" s="4">
         <v>44946</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="22">
         <v>5.2777777777777778E-2</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="13">
         <v>76</v>
       </c>
+      <c r="G22" s="19">
+        <f>G21+1</f>
+        <v>44977</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:14">
       <c r="C23" s="4">
         <v>44947</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="22">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="13">
         <v>96</v>
       </c>
+      <c r="G23" s="19">
+        <f>G22+1</f>
+        <v>44978</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:14">
       <c r="C24" s="4">
         <v>44948</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="22">
         <v>0</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="24">
         <v>0</v>
       </c>
+      <c r="G24" s="19">
+        <f>G23+1</f>
+        <v>44979</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:14">
       <c r="C25" s="4">
         <v>44949</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="22">
         <v>0.14097222222222222</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="13">
         <v>203</v>
       </c>
+      <c r="G25" s="19">
+        <f>G24+1</f>
+        <v>44980</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:14">
       <c r="C26" s="4">
         <v>44950</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="22">
         <v>5.9722222222222225E-2</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="13">
         <v>86</v>
       </c>
+      <c r="G26" s="19">
+        <f>G25+1</f>
+        <v>44981</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:14">
       <c r="C27" s="4">
         <v>44951</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="22">
         <v>0.125</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="13">
         <v>180</v>
       </c>
+      <c r="G27" s="19">
+        <f>G26+1</f>
+        <v>44982</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:14">
       <c r="C28" s="4">
         <v>44952</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="22">
         <v>9.0972222222222218E-2</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="13">
         <v>131</v>
       </c>
+      <c r="G28" s="19">
+        <f>G27+1</f>
+        <v>44983</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:14">
       <c r="C29" s="4">
         <v>44953</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="22">
         <v>9.930555555555555E-2</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="13">
         <v>143</v>
       </c>
+      <c r="G29" s="19">
+        <f>G28+1</f>
+        <v>44984</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="3:14" ht="18.600000000000001" thickBot="1">
       <c r="C30" s="4">
         <v>44954</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="22">
         <v>0.12569444444444444</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="13">
         <v>181</v>
       </c>
+      <c r="G30" s="20">
+        <f>G29+1</f>
+        <v>44985</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="3:14">
       <c r="C31" s="4">
         <v>44955</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="22">
         <v>0.20208333333333331</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="13">
         <v>291</v>
       </c>
+      <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="3:14">
       <c r="C32" s="4">
         <v>44956</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="10"/>
+      <c r="D32" s="22">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="3:5" ht="18.600000000000001" thickBot="1">
       <c r="C33" s="5">
         <v>44957</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="10"/>
+      <c r="D33" s="25">
+        <v>0.1125</v>
+      </c>
+      <c r="E33" s="14">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/日誌.xlsx
+++ b/日誌.xlsx
@@ -3,19 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606E0641-1075-4F39-AD8F-891842E3603C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A4F76A-7B79-4F30-800B-3A59EE934068}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$I$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$I$3:$I$30</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$I$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$I$3:$I$30</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>自習時間</t>
     <rPh sb="0" eb="2">
@@ -338,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -355,7 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -366,6 +359,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1387,6 +1382,15 @@
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1562,6 +1566,293 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A760-4348-90E0-69F5691BBA32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="232865935"/>
+        <c:axId val="275314303"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="232865935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275314303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="275314303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="232865935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1682,6 +1973,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3173,20 +3504,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>395302</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>62102</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>44825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>62755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>273382</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>62102</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>484094</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>117235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3213,16 +4047,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>2017</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7906</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>663390</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>101770</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>7905</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>487253</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>214094</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3249,16 +4083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>654422</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>219636</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>555811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>116539</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165848</xdr:rowOff>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3278,6 +4112,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>573739</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA341932-129F-4886-B60A-2B720925B3C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3552,7 +4422,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3572,7 +4442,7 @@
         <v>44958</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -3595,16 +4465,18 @@
       <c r="C3" s="3">
         <v>44927</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>0</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <v>44958</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="26">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I3" s="15">
         <v>60</v>
       </c>
@@ -3613,66 +4485,78 @@
       <c r="C4" s="4">
         <v>44928</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>8.0555555555555561E-2</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>116</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <f>A2+1</f>
         <v>44959</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="27">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="I4" s="13">
+        <v>130</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="C5" s="4">
         <v>44929</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>0</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
       </c>
-      <c r="G5" s="19">
-        <f>G4+1</f>
+      <c r="G5" s="18">
+        <f t="shared" ref="G5:G30" si="0">G4+1</f>
         <v>44960</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="27">
+        <v>0.16874999999999998</v>
+      </c>
+      <c r="I5" s="13">
+        <v>243</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="C6" s="4">
         <v>44930</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>0</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
       </c>
-      <c r="G6" s="19">
-        <f>G5+1</f>
+      <c r="G6" s="18">
+        <f t="shared" si="0"/>
         <v>44961</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="13"/>
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="C7" s="4">
         <v>44931</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="E7" s="13">
         <v>112</v>
       </c>
-      <c r="G7" s="19">
-        <f>G6+1</f>
+      <c r="G7" s="18">
+        <f t="shared" si="0"/>
         <v>44962</v>
       </c>
       <c r="H7" s="7"/>
@@ -3682,14 +4566,14 @@
       <c r="C8" s="4">
         <v>44932</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>0.14791666666666667</v>
       </c>
       <c r="E8" s="13">
         <v>213</v>
       </c>
-      <c r="G8" s="19">
-        <f>G7+1</f>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
         <v>44963</v>
       </c>
       <c r="H8" s="7"/>
@@ -3699,14 +4583,14 @@
       <c r="C9" s="4">
         <v>44933</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>8.4722222222222213E-2</v>
       </c>
       <c r="E9" s="13">
         <v>122</v>
       </c>
-      <c r="G9" s="19">
-        <f>G8+1</f>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
         <v>44964</v>
       </c>
       <c r="H9" s="7"/>
@@ -3716,14 +4600,14 @@
       <c r="C10" s="4">
         <v>44934</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>0</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
       </c>
-      <c r="G10" s="19">
-        <f>G9+1</f>
+      <c r="G10" s="18">
+        <f t="shared" si="0"/>
         <v>44965</v>
       </c>
       <c r="H10" s="7"/>
@@ -3733,14 +4617,14 @@
       <c r="C11" s="4">
         <v>44935</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="E11" s="13">
         <v>10</v>
       </c>
-      <c r="G11" s="19">
-        <f>G10+1</f>
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
         <v>44966</v>
       </c>
       <c r="H11" s="7"/>
@@ -3750,14 +4634,14 @@
       <c r="C12" s="4">
         <v>44936</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>0.17152777777777775</v>
       </c>
       <c r="E12" s="13">
         <v>247</v>
       </c>
-      <c r="G12" s="19">
-        <f>G11+1</f>
+      <c r="G12" s="18">
+        <f t="shared" si="0"/>
         <v>44967</v>
       </c>
       <c r="H12" s="7"/>
@@ -3767,14 +4651,14 @@
       <c r="C13" s="4">
         <v>44937</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>0</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
       </c>
-      <c r="G13" s="19">
-        <f>G12+1</f>
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
         <v>44968</v>
       </c>
       <c r="H13" s="7"/>
@@ -3784,14 +4668,14 @@
       <c r="C14" s="4">
         <v>44938</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>0.12013888888888889</v>
       </c>
       <c r="E14" s="13">
         <v>173</v>
       </c>
-      <c r="G14" s="19">
-        <f>G13+1</f>
+      <c r="G14" s="18">
+        <f t="shared" si="0"/>
         <v>44969</v>
       </c>
       <c r="H14" s="7"/>
@@ -3801,14 +4685,14 @@
       <c r="C15" s="4">
         <v>44939</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>0.18611111111111112</v>
       </c>
       <c r="E15" s="13">
         <v>268</v>
       </c>
-      <c r="G15" s="19">
-        <f>G14+1</f>
+      <c r="G15" s="18">
+        <f t="shared" si="0"/>
         <v>44970</v>
       </c>
       <c r="H15" s="7"/>
@@ -3818,14 +4702,14 @@
       <c r="C16" s="4">
         <v>44940</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="E16" s="13">
         <v>168</v>
       </c>
-      <c r="G16" s="19">
-        <f>G15+1</f>
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
         <v>44971</v>
       </c>
       <c r="H16" s="7"/>
@@ -3835,14 +4719,14 @@
       <c r="C17" s="4">
         <v>44941</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>0</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
       </c>
-      <c r="G17" s="19">
-        <f>G16+1</f>
+      <c r="G17" s="18">
+        <f t="shared" si="0"/>
         <v>44972</v>
       </c>
       <c r="H17" s="7"/>
@@ -3852,14 +4736,14 @@
       <c r="C18" s="4">
         <v>44942</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>0</v>
       </c>
       <c r="E18" s="13">
         <v>0</v>
       </c>
-      <c r="G18" s="19">
-        <f>G17+1</f>
+      <c r="G18" s="18">
+        <f t="shared" si="0"/>
         <v>44973</v>
       </c>
       <c r="H18" s="7"/>
@@ -3869,14 +4753,14 @@
       <c r="C19" s="4">
         <v>44943</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>9.6527777777777768E-2</v>
       </c>
       <c r="E19" s="13">
         <v>139</v>
       </c>
-      <c r="G19" s="19">
-        <f>G18+1</f>
+      <c r="G19" s="18">
+        <f t="shared" si="0"/>
         <v>44974</v>
       </c>
       <c r="H19" s="7"/>
@@ -3886,14 +4770,14 @@
       <c r="C20" s="4">
         <v>44944</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>6.25E-2</v>
       </c>
       <c r="E20" s="13">
         <v>90</v>
       </c>
-      <c r="G20" s="19">
-        <f>G19+1</f>
+      <c r="G20" s="18">
+        <f t="shared" si="0"/>
         <v>44975</v>
       </c>
       <c r="H20" s="7"/>
@@ -3903,14 +4787,14 @@
       <c r="C21" s="4">
         <v>44945</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="E21" s="13">
         <v>140</v>
       </c>
-      <c r="G21" s="19">
-        <f>G20+1</f>
+      <c r="G21" s="18">
+        <f t="shared" si="0"/>
         <v>44976</v>
       </c>
       <c r="H21" s="7"/>
@@ -3920,14 +4804,14 @@
       <c r="C22" s="4">
         <v>44946</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="E22" s="13">
         <v>76</v>
       </c>
-      <c r="G22" s="19">
-        <f>G21+1</f>
+      <c r="G22" s="18">
+        <f t="shared" si="0"/>
         <v>44977</v>
       </c>
       <c r="H22" s="7"/>
@@ -3937,14 +4821,14 @@
       <c r="C23" s="4">
         <v>44947</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E23" s="13">
         <v>96</v>
       </c>
-      <c r="G23" s="19">
-        <f>G22+1</f>
+      <c r="G23" s="18">
+        <f t="shared" si="0"/>
         <v>44978</v>
       </c>
       <c r="H23" s="7"/>
@@ -3954,14 +4838,14 @@
       <c r="C24" s="4">
         <v>44948</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>0</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="23">
         <v>0</v>
       </c>
-      <c r="G24" s="19">
-        <f>G23+1</f>
+      <c r="G24" s="18">
+        <f t="shared" si="0"/>
         <v>44979</v>
       </c>
       <c r="H24" s="7"/>
@@ -3971,14 +4855,14 @@
       <c r="C25" s="4">
         <v>44949</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>0.14097222222222222</v>
       </c>
       <c r="E25" s="13">
         <v>203</v>
       </c>
-      <c r="G25" s="19">
-        <f>G24+1</f>
+      <c r="G25" s="18">
+        <f t="shared" si="0"/>
         <v>44980</v>
       </c>
       <c r="H25" s="7"/>
@@ -3988,14 +4872,14 @@
       <c r="C26" s="4">
         <v>44950</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="E26" s="13">
         <v>86</v>
       </c>
-      <c r="G26" s="19">
-        <f>G25+1</f>
+      <c r="G26" s="18">
+        <f t="shared" si="0"/>
         <v>44981</v>
       </c>
       <c r="H26" s="7"/>
@@ -4005,14 +4889,14 @@
       <c r="C27" s="4">
         <v>44951</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>0.125</v>
       </c>
       <c r="E27" s="13">
         <v>180</v>
       </c>
-      <c r="G27" s="19">
-        <f>G26+1</f>
+      <c r="G27" s="18">
+        <f t="shared" si="0"/>
         <v>44982</v>
       </c>
       <c r="H27" s="7"/>
@@ -4022,14 +4906,14 @@
       <c r="C28" s="4">
         <v>44952</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>9.0972222222222218E-2</v>
       </c>
       <c r="E28" s="13">
         <v>131</v>
       </c>
-      <c r="G28" s="19">
-        <f>G27+1</f>
+      <c r="G28" s="18">
+        <f t="shared" si="0"/>
         <v>44983</v>
       </c>
       <c r="H28" s="7"/>
@@ -4039,14 +4923,14 @@
       <c r="C29" s="4">
         <v>44953</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>9.930555555555555E-2</v>
       </c>
       <c r="E29" s="13">
         <v>143</v>
       </c>
-      <c r="G29" s="19">
-        <f>G28+1</f>
+      <c r="G29" s="18">
+        <f t="shared" si="0"/>
         <v>44984</v>
       </c>
       <c r="H29" s="7"/>
@@ -4056,24 +4940,24 @@
       <c r="C30" s="4">
         <v>44954</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>0.12569444444444444</v>
       </c>
       <c r="E30" s="13">
         <v>181</v>
       </c>
-      <c r="G30" s="20">
-        <f>G29+1</f>
+      <c r="G30" s="19">
+        <f t="shared" si="0"/>
         <v>44985</v>
       </c>
-      <c r="H30" s="17"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="4">
         <v>44955</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <v>0.20208333333333331</v>
       </c>
       <c r="E31" s="13">
@@ -4085,7 +4969,7 @@
       <c r="C32" s="4">
         <v>44956</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>0</v>
       </c>
       <c r="E32" s="13">
@@ -4096,7 +4980,7 @@
       <c r="C33" s="5">
         <v>44957</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="24">
         <v>0.1125</v>
       </c>
       <c r="E33" s="14">
